--- a/bicriteriaTableSafe.xlsx
+++ b/bicriteriaTableSafe.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
   <si>
     <t xml:space="preserve">Dijkstra Bicriteria binary search</t>
   </si>
@@ -31,7 +31,7 @@
     <t xml:space="preserve">Lower bound improvement</t>
   </si>
   <si>
-    <t xml:space="preserve">Source→target</t>
+    <t xml:space="preserve">Source-&gt;target</t>
   </si>
   <si>
     <t xml:space="preserve">N° solution</t>
@@ -40,7 +40,11 @@
     <t xml:space="preserve">Time (sec)</t>
   </si>
   <si>
-    <t xml:space="preserve">Preprocessing time (sec)</t>
+    <t xml:space="preserve">Loops</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Preprocessing 
+Time (sec)</t>
   </si>
   <si>
     <t xml:space="preserve">Total time (sec)</t>
@@ -104,7 +108,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -135,12 +139,6 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -151,8 +149,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF999999"/>
-        <bgColor rgb="FF808080"/>
+        <fgColor rgb="FF808080"/>
+        <bgColor rgb="FF969696"/>
       </patternFill>
     </fill>
     <fill>
@@ -244,7 +242,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -253,6 +251,10 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -265,6 +267,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -277,11 +283,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -355,7 +369,7 @@
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF6600"/>
       <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF999999"/>
+      <rgbColor rgb="FF969696"/>
       <rgbColor rgb="FF003366"/>
       <rgbColor rgb="FF339966"/>
       <rgbColor rgb="FF003300"/>
@@ -374,26 +388,27 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J24" activeCellId="0" sqref="J24"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N26" activeCellId="0" sqref="N26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="20.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="12.88"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="2" min="2" style="0" width="15.71"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="3" min="3" style="0" width="20.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="15.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="20.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="12.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="22.73"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="15.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="11.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="20.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="21.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="10" style="0" width="8.67"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -402,565 +417,695 @@
         <v>1</v>
       </c>
       <c r="E1" s="1"/>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="1"/>
+      <c r="G1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="1"/>
       <c r="H1" s="1"/>
-    </row>
-    <row r="2" customFormat="false" ht="14.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+    </row>
+    <row r="2" customFormat="false" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="H2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="3" t="s">
-        <v>7</v>
-      </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="6" t="n">
+      <c r="A3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="C3" s="7" t="n">
-        <v>0.446394920349121</v>
-      </c>
-      <c r="D3" s="6" t="n">
+      <c r="C3" s="9" t="n">
+        <v>0.404429912567139</v>
+      </c>
+      <c r="D3" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="E3" s="7" t="n">
-        <v>0.00124335289001465</v>
-      </c>
-      <c r="F3" s="6" t="n">
+      <c r="E3" s="0" t="n">
+        <v>0.00115060806274414</v>
+      </c>
+      <c r="F3" s="9" t="n">
+        <v>276</v>
+      </c>
+      <c r="G3" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="G3" s="0" t="n">
-        <v>0.00165057182312012</v>
-      </c>
-      <c r="H3" s="7" t="n">
-        <v>0.00291514396667481</v>
+      <c r="H3" s="0" t="n">
+        <v>0.00144076347351074</v>
+      </c>
+      <c r="I3" s="0" t="n">
+        <v>0.00273513793945312</v>
+      </c>
+      <c r="J3" s="9" t="n">
+        <v>274</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" s="9" t="n">
+        <v>0.42400336265564</v>
+      </c>
+      <c r="D4" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>0.00696206092834473</v>
+      </c>
+      <c r="F4" s="9" t="n">
+        <v>845</v>
+      </c>
+      <c r="G4" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="H4" s="0" t="n">
+        <v>0.00298142433166504</v>
+      </c>
+      <c r="I4" s="0" t="n">
+        <v>0.00712823867797852</v>
+      </c>
+      <c r="J4" s="9" t="n">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="C5" s="9" t="n">
+        <v>0.495541095733643</v>
+      </c>
+      <c r="D5" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>0.00297665596008301</v>
+      </c>
+      <c r="F5" s="9" t="n">
+        <v>803</v>
+      </c>
+      <c r="G5" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="H5" s="0" t="n">
+        <v>0.00239992141723633</v>
+      </c>
+      <c r="I5" s="0" t="n">
+        <v>0.00578117370605469</v>
+      </c>
+      <c r="J5" s="9" t="n">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" s="9" t="n">
+        <v>0.935111045837402</v>
+      </c>
+      <c r="D6" s="8" t="n">
         <v>9</v>
       </c>
-      <c r="B4" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="C4" s="7" t="n">
-        <v>0.469007730484009</v>
-      </c>
-      <c r="D4" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="E4" s="7" t="n">
-        <v>0.00627756118774414</v>
-      </c>
-      <c r="F4" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="G4" s="0" t="n">
-        <v>0.00403332710266113</v>
-      </c>
-      <c r="H4" s="7" t="n">
-        <v>0.00691127777099609</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="C5" s="7" t="n">
-        <v>0.458463907241821</v>
-      </c>
-      <c r="D5" s="6" t="n">
+      <c r="E6" s="0" t="n">
+        <v>0.0142431259155273</v>
+      </c>
+      <c r="F6" s="9" t="n">
+        <v>2566</v>
+      </c>
+      <c r="G6" s="8" t="n">
+        <v>9</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <v>0.00649571418762207</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <v>0.0212342739105225</v>
+      </c>
+      <c r="J6" s="9" t="n">
+        <v>2495</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="E5" s="7" t="n">
-        <v>0.00287771224975586</v>
-      </c>
-      <c r="F5" s="6" t="n">
-        <v>3</v>
-      </c>
-      <c r="G5" s="0" t="n">
-        <v>0.00345826148986816</v>
-      </c>
-      <c r="H5" s="7" t="n">
-        <v>0.00522589683532715</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="C6" s="7" t="n">
-        <v>0.877886295318604</v>
-      </c>
-      <c r="D6" s="6" t="n">
+      <c r="C7" s="9" t="n">
+        <v>0.531644582748413</v>
+      </c>
+      <c r="D7" s="8" t="n">
         <v>9</v>
       </c>
-      <c r="E6" s="7" t="n">
-        <v>0.0142223834991455</v>
-      </c>
-      <c r="F6" s="6" t="n">
+      <c r="E7" s="0" t="n">
+        <v>0.105634450912476</v>
+      </c>
+      <c r="F7" s="9" t="n">
+        <v>6692</v>
+      </c>
+      <c r="G7" s="8" t="n">
         <v>9</v>
       </c>
-      <c r="G6" s="0" t="n">
-        <v>0.00917935371398926</v>
-      </c>
-      <c r="H6" s="8" t="n">
-        <v>0.0193159580230713</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="6" t="n">
-        <v>3</v>
-      </c>
-      <c r="C7" s="7" t="n">
-        <v>0.501847505569458</v>
-      </c>
-      <c r="D7" s="6" t="n">
-        <v>9</v>
-      </c>
-      <c r="E7" s="7" t="n">
-        <v>0.105987548828125</v>
-      </c>
-      <c r="F7" s="6" t="n">
-        <v>9</v>
-      </c>
-      <c r="G7" s="0" t="n">
-        <v>0.0126588344573975</v>
-      </c>
-      <c r="H7" s="7" t="n">
-        <v>0.0565414428710938</v>
+      <c r="H7" s="0" t="n">
+        <v>0.0118577480316162</v>
+      </c>
+      <c r="I7" s="0" t="n">
+        <v>0.045586109161377</v>
+      </c>
+      <c r="J7" s="9" t="n">
+        <v>5049</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="2" t="n">
+      <c r="A8" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="3" t="n">
         <f aca="false">AVERAGE(B3:B7)</f>
         <v>2.8</v>
       </c>
-      <c r="C8" s="3" t="n">
+      <c r="C8" s="4" t="n">
         <f aca="false">AVERAGE(C3:C7)</f>
-        <v>0.550720071792602</v>
-      </c>
-      <c r="D8" s="2" t="n">
+        <v>0.558145999908447</v>
+      </c>
+      <c r="D8" s="3" t="n">
         <f aca="false">AVERAGE(D3:D7)</f>
         <v>5</v>
       </c>
-      <c r="E8" s="3" t="n">
+      <c r="E8" s="5" t="n">
         <f aca="false">AVERAGE(E3:E7)</f>
-        <v>0.026121711730957</v>
-      </c>
-      <c r="F8" s="2" t="n">
+        <v>0.026193380355835</v>
+      </c>
+      <c r="F8" s="4" t="n">
         <f aca="false">AVERAGE(F3:F7)</f>
+        <v>2236.4</v>
+      </c>
+      <c r="G8" s="3" t="n">
+        <f aca="false">AVERAGE(G3:G7)</f>
         <v>5</v>
       </c>
-      <c r="G8" s="4" t="n">
-        <f aca="false">AVERAGE(G3:G7)</f>
-        <v>0.00619606971740723</v>
-      </c>
-      <c r="H8" s="3" t="n">
+      <c r="H8" s="5" t="n">
         <f aca="false">AVERAGE(H3:H7)</f>
-        <v>0.0181819438934326</v>
+        <v>0.00503511428833008</v>
+      </c>
+      <c r="I8" s="5" t="n">
+        <f aca="false">AVERAGE(I3:I7)</f>
+        <v>0.0164929866790771</v>
+      </c>
+      <c r="J8" s="4" t="n">
+        <f aca="false">AVERAGE(J3:J7)</f>
+        <v>1890.2</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="C9" s="9" t="n">
+        <v>0.931807041168213</v>
+      </c>
+      <c r="D9" s="8" t="n">
         <v>14</v>
       </c>
-      <c r="B9" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="C9" s="7" t="n">
-        <v>0.933074474334717</v>
-      </c>
-      <c r="D9" s="6" t="n">
+      <c r="E9" s="0" t="n">
+        <v>0.0241706371307373</v>
+      </c>
+      <c r="F9" s="9" t="n">
+        <v>4080</v>
+      </c>
+      <c r="G9" s="8" t="n">
         <v>14</v>
       </c>
-      <c r="E9" s="8" t="n">
-        <v>0.0493071079254151</v>
-      </c>
-      <c r="F9" s="6" t="n">
+      <c r="H9" s="0" t="n">
+        <v>0.00570392608642578</v>
+      </c>
+      <c r="I9" s="11" t="n">
+        <v>0.0362961292266846</v>
+      </c>
+      <c r="J9" s="9" t="n">
+        <v>4052</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="C10" s="9" t="n">
+        <v>0.602306604385376</v>
+      </c>
+      <c r="D10" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>0.0787420272827148</v>
+      </c>
+      <c r="F10" s="9" t="n">
+        <v>13754</v>
+      </c>
+      <c r="G10" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="H10" s="0" t="n">
+        <v>0.0222070217132568</v>
+      </c>
+      <c r="I10" s="11" t="n">
+        <v>0.115856647491455</v>
+      </c>
+      <c r="J10" s="9" t="n">
+        <v>10451</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="8" t="n">
+        <v>8</v>
+      </c>
+      <c r="C11" s="9" t="n">
+        <v>1.6353714466095</v>
+      </c>
+      <c r="D11" s="8" t="n">
+        <v>11</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>0.179431200027466</v>
+      </c>
+      <c r="F11" s="9" t="n">
+        <v>24255</v>
+      </c>
+      <c r="G11" s="8" t="n">
+        <v>11</v>
+      </c>
+      <c r="H11" s="0" t="n">
+        <v>0.0292112827301025</v>
+      </c>
+      <c r="I11" s="11" t="n">
+        <v>0.237473011016846</v>
+      </c>
+      <c r="J11" s="9" t="n">
+        <v>22428</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="C12" s="9" t="n">
+        <v>0.588266372680664</v>
+      </c>
+      <c r="D12" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>0.165558815002441</v>
+      </c>
+      <c r="F12" s="9" t="n">
+        <v>22094</v>
+      </c>
+      <c r="G12" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="H12" s="0" t="n">
+        <v>0.0137734413146973</v>
+      </c>
+      <c r="I12" s="11" t="n">
+        <v>0.192643880844116</v>
+      </c>
+      <c r="J12" s="9" t="n">
+        <v>22084</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C13" s="9" t="n">
+        <v>2.15780472755432</v>
+      </c>
+      <c r="D13" s="8" t="n">
+        <v>77</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>3.09933567047119</v>
+      </c>
+      <c r="F13" s="9" t="n">
+        <v>144026</v>
+      </c>
+      <c r="G13" s="8" t="n">
+        <v>77</v>
+      </c>
+      <c r="H13" s="0" t="n">
+        <v>0.0709619522094727</v>
+      </c>
+      <c r="I13" s="12" t="n">
+        <v>2.71219158172607</v>
+      </c>
+      <c r="J13" s="9" t="n">
+        <v>141685</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="G9" s="0" t="n">
-        <v>0.00822591781616211</v>
-      </c>
-      <c r="H9" s="7" t="n">
-        <v>0.0362961292266846</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="C10" s="7" t="n">
-        <v>0.600834131240845</v>
-      </c>
-      <c r="D10" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="E10" s="8" t="n">
-        <v>0.112979173660278</v>
-      </c>
-      <c r="F10" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="G10" s="0" t="n">
-        <v>0.024918794631958</v>
-      </c>
-      <c r="H10" s="7" t="n">
-        <v>0.115856647491455</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="6" t="n">
-        <v>8</v>
-      </c>
-      <c r="C11" s="7" t="n">
-        <v>1.66163110733032</v>
-      </c>
-      <c r="D11" s="6" t="n">
-        <v>11</v>
-      </c>
-      <c r="E11" s="8" t="n">
-        <v>0.285227060317993</v>
-      </c>
-      <c r="F11" s="6" t="n">
-        <v>11</v>
-      </c>
-      <c r="G11" s="0" t="n">
-        <v>0.0359723567962647</v>
-      </c>
-      <c r="H11" s="7" t="n">
-        <v>0.237473011016846</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="6" t="n">
-        <v>3</v>
-      </c>
-      <c r="C12" s="7" t="n">
-        <v>0.596487760543823</v>
-      </c>
-      <c r="D12" s="6" t="n">
-        <v>4</v>
-      </c>
-      <c r="E12" s="8" t="n">
-        <v>0.30186128616333</v>
-      </c>
-      <c r="F12" s="6" t="n">
-        <v>4</v>
-      </c>
-      <c r="G12" s="0" t="n">
-        <v>0.0139522552490234</v>
-      </c>
-      <c r="H12" s="7" t="n">
-        <v>0.192643880844116</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" s="6" t="n">
-        <v>6</v>
-      </c>
-      <c r="C13" s="7" t="n">
-        <v>2.22522163391113</v>
-      </c>
-      <c r="D13" s="6" t="n">
-        <v>77</v>
-      </c>
-      <c r="E13" s="8" t="n">
-        <v>2.88381671905518</v>
-      </c>
-      <c r="F13" s="6" t="n">
-        <v>77</v>
-      </c>
-      <c r="G13" s="0" t="n">
-        <v>0.0685479640960693</v>
-      </c>
-      <c r="H13" s="8" t="n">
-        <v>2.71219158172607</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="2" t="n">
+      <c r="B14" s="3" t="n">
         <f aca="false">AVERAGE(B9:B13)</f>
         <v>4.8</v>
       </c>
-      <c r="C14" s="3" t="n">
+      <c r="C14" s="4" t="n">
         <f aca="false">AVERAGE(C9:C13)</f>
-        <v>1.20344982147217</v>
-      </c>
-      <c r="D14" s="2" t="n">
+        <v>1.18311123847961</v>
+      </c>
+      <c r="D14" s="3" t="n">
         <f aca="false">AVERAGE(D9:D13)</f>
         <v>21.6</v>
       </c>
-      <c r="E14" s="3" t="n">
+      <c r="E14" s="5" t="n">
         <f aca="false">AVERAGE(E9:E13)</f>
-        <v>0.726638269424439</v>
-      </c>
-      <c r="F14" s="2" t="n">
+        <v>0.70944766998291</v>
+      </c>
+      <c r="F14" s="4" t="n">
         <f aca="false">AVERAGE(F9:F13)</f>
+        <v>41641.8</v>
+      </c>
+      <c r="G14" s="3" t="n">
+        <f aca="false">AVERAGE(G9:G13)</f>
         <v>21.6</v>
       </c>
-      <c r="G14" s="4" t="n">
-        <f aca="false">AVERAGE(G9:G13)</f>
-        <v>0.0303234577178955</v>
-      </c>
-      <c r="H14" s="3" t="n">
+      <c r="H14" s="5" t="n">
         <f aca="false">AVERAGE(H9:H13)</f>
+        <v>0.028371524810791</v>
+      </c>
+      <c r="I14" s="13" t="n">
+        <f aca="false">AVERAGE(I9:I13)</f>
         <v>0.658892250061034</v>
       </c>
+      <c r="J14" s="4" t="n">
+        <f aca="false">AVERAGE(J9:J13)</f>
+        <v>40140</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" s="6" t="n">
+      <c r="A15" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="8" t="n">
         <v>7</v>
       </c>
-      <c r="C15" s="7" t="n">
-        <v>3.21738362312317</v>
-      </c>
-      <c r="D15" s="6" t="n">
+      <c r="C15" s="9" t="n">
+        <v>3.50039029121399</v>
+      </c>
+      <c r="D15" s="8" t="n">
         <v>26</v>
       </c>
-      <c r="E15" s="7" t="n">
-        <v>2.51937890052795</v>
-      </c>
-      <c r="F15" s="6" t="n">
+      <c r="E15" s="0" t="n">
+        <v>2.53605985641479</v>
+      </c>
+      <c r="F15" s="9" t="n">
+        <v>176116</v>
+      </c>
+      <c r="G15" s="8" t="n">
         <v>26</v>
       </c>
-      <c r="G15" s="0" t="n">
-        <v>0.106492519378662</v>
-      </c>
-      <c r="H15" s="7" t="n">
+      <c r="H15" s="0" t="n">
+        <v>0.101713180541992</v>
+      </c>
+      <c r="I15" s="11" t="n">
         <v>2.79941368103027</v>
       </c>
+      <c r="J15" s="9" t="n">
+        <v>173093</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B16" s="6" t="n">
+      <c r="A16" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="8" t="n">
         <v>5</v>
       </c>
-      <c r="C16" s="7" t="n">
-        <v>3.86246991157532</v>
-      </c>
-      <c r="D16" s="6" t="n">
+      <c r="C16" s="9" t="n">
+        <v>4.22580528259277</v>
+      </c>
+      <c r="D16" s="8" t="n">
         <v>32</v>
       </c>
-      <c r="E16" s="7" t="n">
-        <v>32.0708351135254</v>
-      </c>
-      <c r="F16" s="6" t="n">
+      <c r="E16" s="0" t="n">
+        <v>39.6807396411896</v>
+      </c>
+      <c r="F16" s="9" t="n">
+        <v>826498</v>
+      </c>
+      <c r="G16" s="8" t="n">
         <v>32</v>
       </c>
-      <c r="G16" s="0" t="n">
-        <v>0.16347336769104</v>
-      </c>
-      <c r="H16" s="8" t="n">
+      <c r="H16" s="0" t="n">
+        <v>0.160044193267822</v>
+      </c>
+      <c r="I16" s="12" t="n">
         <v>33.6382141113281</v>
       </c>
+      <c r="J16" s="9" t="n">
+        <v>825932</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17" s="6" t="n">
+      <c r="A17" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="8" t="n">
         <v>13</v>
       </c>
-      <c r="C17" s="7" t="n">
-        <v>8.30779099464417</v>
-      </c>
-      <c r="D17" s="6" t="n">
+      <c r="C17" s="9" t="n">
+        <v>8.3490309715271</v>
+      </c>
+      <c r="D17" s="8" t="n">
         <v>286</v>
       </c>
-      <c r="E17" s="7" t="n">
-        <v>166.709839582443</v>
-      </c>
-      <c r="F17" s="6" t="n">
+      <c r="E17" s="0" t="n">
+        <v>178.689073085785</v>
+      </c>
+      <c r="F17" s="9" t="n">
+        <v>2071285</v>
+      </c>
+      <c r="G17" s="8" t="n">
         <v>286</v>
       </c>
-      <c r="G17" s="0" t="n">
-        <v>0.220849752426147</v>
-      </c>
-      <c r="H17" s="7" t="n">
+      <c r="H17" s="0" t="n">
+        <v>0.220495462417602</v>
+      </c>
+      <c r="I17" s="11" t="n">
         <v>167.486445426941</v>
       </c>
+      <c r="J17" s="9" t="n">
+        <v>2058255</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" s="6" t="n">
+      <c r="A18" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="8" t="n">
         <v>15</v>
       </c>
-      <c r="C18" s="7" t="n">
-        <v>7.64055371284485</v>
-      </c>
-      <c r="D18" s="6" t="n">
+      <c r="C18" s="9" t="n">
+        <v>8.85324883460999</v>
+      </c>
+      <c r="D18" s="8" t="n">
         <v>213</v>
       </c>
-      <c r="E18" s="7" t="n">
-        <v>349.683897972107</v>
-      </c>
-      <c r="F18" s="6" t="n">
+      <c r="E18" s="0" t="n">
+        <v>369.573869466782</v>
+      </c>
+      <c r="F18" s="9" t="n">
+        <v>3209197</v>
+      </c>
+      <c r="G18" s="8" t="n">
         <v>213</v>
       </c>
-      <c r="G18" s="0" t="n">
-        <v>0.205159902572632</v>
-      </c>
-      <c r="H18" s="7" t="n">
+      <c r="H18" s="0" t="n">
+        <v>0.203479290008545</v>
+      </c>
+      <c r="I18" s="11" t="n">
         <v>348.421177387237</v>
       </c>
+      <c r="J18" s="9" t="n">
+        <v>3120408</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" s="6" t="n">
+      <c r="A19" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="8" t="n">
         <v>16</v>
       </c>
-      <c r="C19" s="7" t="n">
-        <v>9.02015709877014</v>
-      </c>
-      <c r="D19" s="6" t="n">
+      <c r="C19" s="9" t="n">
+        <v>9.1708664894104</v>
+      </c>
+      <c r="D19" s="8" t="n">
         <v>150</v>
       </c>
-      <c r="E19" s="8" t="n">
-        <v>182.642422914505</v>
-      </c>
-      <c r="F19" s="6" t="n">
+      <c r="E19" s="0" t="n">
+        <v>191.306616067886</v>
+      </c>
+      <c r="F19" s="9" t="n">
+        <v>2390507</v>
+      </c>
+      <c r="G19" s="8" t="n">
         <v>150</v>
       </c>
-      <c r="G19" s="0" t="n">
-        <v>0.215627431869507</v>
-      </c>
-      <c r="H19" s="7" t="n">
+      <c r="H19" s="0" t="n">
+        <v>0.263519048690796</v>
+      </c>
+      <c r="I19" s="11" t="n">
         <v>176.629216194153</v>
       </c>
+      <c r="J19" s="9" t="n">
+        <v>2387965</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B20" s="2" t="n">
+      <c r="A20" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" s="3" t="n">
         <f aca="false">AVERAGE(B15:B19)</f>
         <v>11.2</v>
       </c>
-      <c r="C20" s="3" t="n">
+      <c r="C20" s="4" t="n">
         <f aca="false">AVERAGE(C15:C19)</f>
-        <v>6.40967106819153</v>
-      </c>
-      <c r="D20" s="2" t="n">
+        <v>6.81986837387085</v>
+      </c>
+      <c r="D20" s="3" t="n">
         <f aca="false">AVERAGE(D15:D19)</f>
         <v>141.4</v>
       </c>
-      <c r="E20" s="3" t="n">
+      <c r="E20" s="5" t="n">
         <f aca="false">AVERAGE(E15:E19)</f>
-        <v>146.725274896622</v>
-      </c>
-      <c r="F20" s="2" t="n">
+        <v>156.357271623611</v>
+      </c>
+      <c r="F20" s="4" t="n">
         <f aca="false">AVERAGE(F15:F19)</f>
+        <v>1734720.6</v>
+      </c>
+      <c r="G20" s="3" t="n">
+        <f aca="false">AVERAGE(G15:G19)</f>
         <v>141.4</v>
       </c>
-      <c r="G20" s="4" t="n">
-        <f aca="false">AVERAGE(G15:G19)</f>
-        <v>0.182320594787598</v>
-      </c>
-      <c r="H20" s="3" t="n">
+      <c r="H20" s="5" t="n">
         <f aca="false">AVERAGE(H15:H19)</f>
+        <v>0.189850234985352</v>
+      </c>
+      <c r="I20" s="5" t="n">
+        <f aca="false">AVERAGE(I15:I19)</f>
         <v>145.794893360138</v>
       </c>
+      <c r="J20" s="4" t="n">
+        <f aca="false">AVERAGE(J15:J19)</f>
+        <v>1713130.6</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" s="10" t="n">
+      <c r="A21" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="14" t="n">
         <f aca="false">AVERAGE(B3:B7,B9:B13,B15:B19)</f>
         <v>6.26666666666667</v>
       </c>
-      <c r="C21" s="11" t="n">
+      <c r="C21" s="15" t="n">
         <f aca="false">AVERAGE(C3:C7,C9:C13,C15:C19)</f>
-        <v>2.72128032048543</v>
-      </c>
-      <c r="D21" s="10" t="n">
+        <v>2.85370853741964</v>
+      </c>
+      <c r="D21" s="14" t="n">
         <f aca="false">AVERAGE(D3:D7,D9:D13,D15:D19)</f>
         <v>56</v>
       </c>
-      <c r="E21" s="11" t="n">
+      <c r="E21" s="16" t="n">
         <f aca="false">AVERAGE(E3:E7,E9:E13,E15:E19)</f>
-        <v>49.159344959259</v>
-      </c>
-      <c r="F21" s="10" t="n">
+        <v>52.3643042246501</v>
+      </c>
+      <c r="F21" s="15" t="n">
         <f aca="false">AVERAGE(F3:F7,F9:F13,F15:F19)</f>
+        <v>592866.266666667</v>
+      </c>
+      <c r="G21" s="14" t="n">
+        <f aca="false">AVERAGE(G3:G7,G9:G13,G15:G19)</f>
         <v>56</v>
       </c>
-      <c r="G21" s="12" t="n">
-        <f aca="false">AVERAGE(G3:G7,G9:G13,G15:G19)</f>
-        <v>0.0729467074076335</v>
-      </c>
-      <c r="H21" s="11" t="n">
+      <c r="H21" s="16" t="n">
         <f aca="false">AVERAGE(H3:H7,H9:H13,H15:H19)</f>
-        <v>48.8239891846975</v>
+        <v>0.0744189580281576</v>
+      </c>
+      <c r="I21" s="16" t="n">
+        <f aca="false">AVERAGE(I3:I7,I9:I13,I15:I19)</f>
+        <v>48.8234261989593</v>
+      </c>
+      <c r="J21" s="15" t="n">
+        <f aca="false">AVERAGE(J3:J7,J9:J13,J15:J19)</f>
+        <v>585053.6</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="G1:J1"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/bicriteriaTableSafe.xlsx
+++ b/bicriteriaTableSafe.xlsx
@@ -391,14 +391,14 @@
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N26" activeCellId="0" sqref="N26"/>
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.71"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="2" min="2" style="0" width="15.71"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="3" min="3" style="0" width="20.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="28.9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="15.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="20.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="15.71"/>
@@ -425,7 +425,7 @@
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
     </row>
-    <row r="2" customFormat="false" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>

--- a/bicriteriaTableSafe.xlsx
+++ b/bicriteriaTableSafe.xlsx
@@ -166,7 +166,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="12">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -182,6 +182,13 @@
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="hair"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
       <left style="hair"/>
       <right/>
       <top/>
@@ -191,6 +198,13 @@
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right style="hair"/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right/>
       <top/>
       <bottom/>
       <diagonal/>
@@ -216,6 +230,27 @@
       <bottom style="hair"/>
       <diagonal/>
     </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right/>
+      <top/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="hair"/>
+      <top/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -242,7 +277,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="23">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -251,19 +286,27 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -275,14 +318,18 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -299,15 +346,27 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -391,21 +450,22 @@
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection pane="topLeft" activeCell="N9" activeCellId="0" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.61"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="28.9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="15.71"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="2" min="2" style="0" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="3" min="3" style="0" width="20.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="11.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="20.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="15.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="6" min="6" style="0" width="17.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="10.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="20.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="21.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="10" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="10" min="10" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="11" style="0" width="8.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -418,65 +478,65 @@
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
     </row>
     <row r="2" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="5" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="8" t="n">
+      <c r="B3" s="10" t="n">
         <v>2</v>
       </c>
-      <c r="C3" s="9" t="n">
+      <c r="C3" s="11" t="n">
         <v>0.404429912567139</v>
       </c>
-      <c r="D3" s="8" t="n">
+      <c r="D3" s="10" t="n">
         <v>2</v>
       </c>
       <c r="E3" s="0" t="n">
         <v>0.00115060806274414</v>
       </c>
-      <c r="F3" s="9" t="n">
+      <c r="F3" s="11" t="n">
         <v>276</v>
       </c>
-      <c r="G3" s="8" t="n">
+      <c r="G3" s="12" t="n">
         <v>2</v>
       </c>
       <c r="H3" s="0" t="n">
@@ -485,30 +545,30 @@
       <c r="I3" s="0" t="n">
         <v>0.00273513793945312</v>
       </c>
-      <c r="J3" s="9" t="n">
+      <c r="J3" s="11" t="n">
         <v>274</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="8" t="n">
+      <c r="B4" s="10" t="n">
         <v>2</v>
       </c>
-      <c r="C4" s="9" t="n">
+      <c r="C4" s="11" t="n">
         <v>0.42400336265564</v>
       </c>
-      <c r="D4" s="8" t="n">
+      <c r="D4" s="10" t="n">
         <v>2</v>
       </c>
       <c r="E4" s="0" t="n">
         <v>0.00696206092834473</v>
       </c>
-      <c r="F4" s="9" t="n">
+      <c r="F4" s="11" t="n">
         <v>845</v>
       </c>
-      <c r="G4" s="8" t="n">
+      <c r="G4" s="12" t="n">
         <v>2</v>
       </c>
       <c r="H4" s="0" t="n">
@@ -517,30 +577,30 @@
       <c r="I4" s="0" t="n">
         <v>0.00712823867797852</v>
       </c>
-      <c r="J4" s="9" t="n">
+      <c r="J4" s="11" t="n">
         <v>830</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="8" t="n">
+      <c r="B5" s="10" t="n">
         <v>2</v>
       </c>
-      <c r="C5" s="9" t="n">
+      <c r="C5" s="11" t="n">
         <v>0.495541095733643</v>
       </c>
-      <c r="D5" s="8" t="n">
+      <c r="D5" s="10" t="n">
         <v>3</v>
       </c>
       <c r="E5" s="0" t="n">
         <v>0.00297665596008301</v>
       </c>
-      <c r="F5" s="9" t="n">
+      <c r="F5" s="11" t="n">
         <v>803</v>
       </c>
-      <c r="G5" s="8" t="n">
+      <c r="G5" s="12" t="n">
         <v>3</v>
       </c>
       <c r="H5" s="0" t="n">
@@ -549,30 +609,30 @@
       <c r="I5" s="0" t="n">
         <v>0.00578117370605469</v>
       </c>
-      <c r="J5" s="9" t="n">
+      <c r="J5" s="11" t="n">
         <v>803</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="8" t="n">
+      <c r="B6" s="10" t="n">
         <v>5</v>
       </c>
-      <c r="C6" s="9" t="n">
+      <c r="C6" s="11" t="n">
         <v>0.935111045837402</v>
       </c>
-      <c r="D6" s="8" t="n">
+      <c r="D6" s="10" t="n">
         <v>9</v>
       </c>
       <c r="E6" s="0" t="n">
         <v>0.0142431259155273</v>
       </c>
-      <c r="F6" s="9" t="n">
+      <c r="F6" s="11" t="n">
         <v>2566</v>
       </c>
-      <c r="G6" s="8" t="n">
+      <c r="G6" s="12" t="n">
         <v>9</v>
       </c>
       <c r="H6" s="0" t="n">
@@ -581,30 +641,30 @@
       <c r="I6" s="0" t="n">
         <v>0.0212342739105225</v>
       </c>
-      <c r="J6" s="9" t="n">
+      <c r="J6" s="11" t="n">
         <v>2495</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="8" t="n">
+      <c r="B7" s="10" t="n">
         <v>3</v>
       </c>
-      <c r="C7" s="9" t="n">
+      <c r="C7" s="11" t="n">
         <v>0.531644582748413</v>
       </c>
-      <c r="D7" s="8" t="n">
+      <c r="D7" s="10" t="n">
         <v>9</v>
       </c>
       <c r="E7" s="0" t="n">
         <v>0.105634450912476</v>
       </c>
-      <c r="F7" s="9" t="n">
+      <c r="F7" s="11" t="n">
         <v>6692</v>
       </c>
-      <c r="G7" s="8" t="n">
+      <c r="G7" s="12" t="n">
         <v>9</v>
       </c>
       <c r="H7" s="0" t="n">
@@ -613,490 +673,490 @@
       <c r="I7" s="0" t="n">
         <v>0.045586109161377</v>
       </c>
-      <c r="J7" s="9" t="n">
+      <c r="J7" s="11" t="n">
         <v>5049</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="3" t="n">
+      <c r="B8" s="4" t="n">
         <f aca="false">AVERAGE(B3:B7)</f>
         <v>2.8</v>
       </c>
-      <c r="C8" s="4" t="n">
+      <c r="C8" s="5" t="n">
         <f aca="false">AVERAGE(C3:C7)</f>
         <v>0.558145999908447</v>
       </c>
-      <c r="D8" s="3" t="n">
+      <c r="D8" s="4" t="n">
         <f aca="false">AVERAGE(D3:D7)</f>
         <v>5</v>
       </c>
-      <c r="E8" s="5" t="n">
+      <c r="E8" s="6" t="n">
         <f aca="false">AVERAGE(E3:E7)</f>
         <v>0.026193380355835</v>
       </c>
-      <c r="F8" s="4" t="n">
+      <c r="F8" s="5" t="n">
         <f aca="false">AVERAGE(F3:F7)</f>
         <v>2236.4</v>
       </c>
-      <c r="G8" s="3" t="n">
+      <c r="G8" s="7" t="n">
         <f aca="false">AVERAGE(G3:G7)</f>
         <v>5</v>
       </c>
-      <c r="H8" s="5" t="n">
+      <c r="H8" s="6" t="n">
         <f aca="false">AVERAGE(H3:H7)</f>
         <v>0.00503511428833008</v>
       </c>
-      <c r="I8" s="5" t="n">
+      <c r="I8" s="6" t="n">
         <f aca="false">AVERAGE(I3:I7)</f>
-        <v>0.0164929866790771</v>
-      </c>
-      <c r="J8" s="4" t="n">
+        <v>0.0164929866790772</v>
+      </c>
+      <c r="J8" s="5" t="n">
         <f aca="false">AVERAGE(J3:J7)</f>
         <v>1890.2</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="8" t="n">
+      <c r="B9" s="10" t="n">
         <v>5</v>
       </c>
-      <c r="C9" s="9" t="n">
+      <c r="C9" s="11" t="n">
         <v>0.931807041168213</v>
       </c>
-      <c r="D9" s="8" t="n">
+      <c r="D9" s="10" t="n">
         <v>14</v>
       </c>
       <c r="E9" s="0" t="n">
         <v>0.0241706371307373</v>
       </c>
-      <c r="F9" s="9" t="n">
+      <c r="F9" s="11" t="n">
         <v>4080</v>
       </c>
-      <c r="G9" s="8" t="n">
+      <c r="G9" s="12" t="n">
         <v>14</v>
       </c>
       <c r="H9" s="0" t="n">
         <v>0.00570392608642578</v>
       </c>
-      <c r="I9" s="11" t="n">
+      <c r="I9" s="14" t="n">
         <v>0.0362961292266846</v>
       </c>
-      <c r="J9" s="9" t="n">
+      <c r="J9" s="11" t="n">
         <v>4052</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="8" t="n">
+      <c r="B10" s="10" t="n">
         <v>2</v>
       </c>
-      <c r="C10" s="9" t="n">
+      <c r="C10" s="11" t="n">
         <v>0.602306604385376</v>
       </c>
-      <c r="D10" s="8" t="n">
+      <c r="D10" s="10" t="n">
         <v>2</v>
       </c>
       <c r="E10" s="0" t="n">
         <v>0.0787420272827148</v>
       </c>
-      <c r="F10" s="9" t="n">
+      <c r="F10" s="11" t="n">
         <v>13754</v>
       </c>
-      <c r="G10" s="8" t="n">
+      <c r="G10" s="12" t="n">
         <v>2</v>
       </c>
       <c r="H10" s="0" t="n">
         <v>0.0222070217132568</v>
       </c>
-      <c r="I10" s="11" t="n">
+      <c r="I10" s="14" t="n">
         <v>0.115856647491455</v>
       </c>
-      <c r="J10" s="9" t="n">
+      <c r="J10" s="11" t="n">
         <v>10451</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="8" t="n">
+      <c r="B11" s="10" t="n">
         <v>8</v>
       </c>
-      <c r="C11" s="9" t="n">
+      <c r="C11" s="11" t="n">
         <v>1.6353714466095</v>
       </c>
-      <c r="D11" s="8" t="n">
+      <c r="D11" s="10" t="n">
         <v>11</v>
       </c>
       <c r="E11" s="0" t="n">
         <v>0.179431200027466</v>
       </c>
-      <c r="F11" s="9" t="n">
+      <c r="F11" s="11" t="n">
         <v>24255</v>
       </c>
-      <c r="G11" s="8" t="n">
+      <c r="G11" s="12" t="n">
         <v>11</v>
       </c>
       <c r="H11" s="0" t="n">
         <v>0.0292112827301025</v>
       </c>
-      <c r="I11" s="11" t="n">
+      <c r="I11" s="14" t="n">
         <v>0.237473011016846</v>
       </c>
-      <c r="J11" s="9" t="n">
+      <c r="J11" s="11" t="n">
         <v>22428</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="8" t="n">
+      <c r="B12" s="10" t="n">
         <v>3</v>
       </c>
-      <c r="C12" s="9" t="n">
+      <c r="C12" s="11" t="n">
         <v>0.588266372680664</v>
       </c>
-      <c r="D12" s="8" t="n">
+      <c r="D12" s="10" t="n">
         <v>4</v>
       </c>
       <c r="E12" s="0" t="n">
         <v>0.165558815002441</v>
       </c>
-      <c r="F12" s="9" t="n">
+      <c r="F12" s="11" t="n">
         <v>22094</v>
       </c>
-      <c r="G12" s="8" t="n">
+      <c r="G12" s="12" t="n">
         <v>4</v>
       </c>
       <c r="H12" s="0" t="n">
         <v>0.0137734413146973</v>
       </c>
-      <c r="I12" s="11" t="n">
+      <c r="I12" s="14" t="n">
         <v>0.192643880844116</v>
       </c>
-      <c r="J12" s="9" t="n">
+      <c r="J12" s="11" t="n">
         <v>22084</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="8" t="n">
+      <c r="B13" s="10" t="n">
         <v>6</v>
       </c>
-      <c r="C13" s="9" t="n">
+      <c r="C13" s="11" t="n">
         <v>2.15780472755432</v>
       </c>
-      <c r="D13" s="8" t="n">
+      <c r="D13" s="10" t="n">
         <v>77</v>
       </c>
       <c r="E13" s="0" t="n">
         <v>3.09933567047119</v>
       </c>
-      <c r="F13" s="9" t="n">
+      <c r="F13" s="11" t="n">
         <v>144026</v>
       </c>
-      <c r="G13" s="8" t="n">
+      <c r="G13" s="12" t="n">
         <v>77</v>
       </c>
       <c r="H13" s="0" t="n">
         <v>0.0709619522094727</v>
       </c>
-      <c r="I13" s="12" t="n">
+      <c r="I13" s="15" t="n">
         <v>2.71219158172607</v>
       </c>
-      <c r="J13" s="9" t="n">
+      <c r="J13" s="11" t="n">
         <v>141685</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="3" t="n">
+      <c r="B14" s="4" t="n">
         <f aca="false">AVERAGE(B9:B13)</f>
         <v>4.8</v>
       </c>
-      <c r="C14" s="4" t="n">
+      <c r="C14" s="5" t="n">
         <f aca="false">AVERAGE(C9:C13)</f>
         <v>1.18311123847961</v>
       </c>
-      <c r="D14" s="3" t="n">
+      <c r="D14" s="4" t="n">
         <f aca="false">AVERAGE(D9:D13)</f>
         <v>21.6</v>
       </c>
-      <c r="E14" s="5" t="n">
+      <c r="E14" s="6" t="n">
         <f aca="false">AVERAGE(E9:E13)</f>
         <v>0.70944766998291</v>
       </c>
-      <c r="F14" s="4" t="n">
+      <c r="F14" s="5" t="n">
         <f aca="false">AVERAGE(F9:F13)</f>
         <v>41641.8</v>
       </c>
-      <c r="G14" s="3" t="n">
+      <c r="G14" s="7" t="n">
         <f aca="false">AVERAGE(G9:G13)</f>
         <v>21.6</v>
       </c>
-      <c r="H14" s="5" t="n">
+      <c r="H14" s="6" t="n">
         <f aca="false">AVERAGE(H9:H13)</f>
         <v>0.028371524810791</v>
       </c>
-      <c r="I14" s="13" t="n">
+      <c r="I14" s="16" t="n">
         <f aca="false">AVERAGE(I9:I13)</f>
         <v>0.658892250061034</v>
       </c>
-      <c r="J14" s="4" t="n">
+      <c r="J14" s="5" t="n">
         <f aca="false">AVERAGE(J9:J13)</f>
         <v>40140</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="8" t="n">
+      <c r="B15" s="10" t="n">
         <v>7</v>
       </c>
-      <c r="C15" s="9" t="n">
+      <c r="C15" s="11" t="n">
         <v>3.50039029121399</v>
       </c>
-      <c r="D15" s="8" t="n">
+      <c r="D15" s="10" t="n">
         <v>26</v>
       </c>
       <c r="E15" s="0" t="n">
         <v>2.53605985641479</v>
       </c>
-      <c r="F15" s="9" t="n">
+      <c r="F15" s="11" t="n">
         <v>176116</v>
       </c>
-      <c r="G15" s="8" t="n">
+      <c r="G15" s="12" t="n">
         <v>26</v>
       </c>
       <c r="H15" s="0" t="n">
         <v>0.101713180541992</v>
       </c>
-      <c r="I15" s="11" t="n">
+      <c r="I15" s="14" t="n">
         <v>2.79941368103027</v>
       </c>
-      <c r="J15" s="9" t="n">
+      <c r="J15" s="11" t="n">
         <v>173093</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="8" t="n">
+      <c r="B16" s="10" t="n">
         <v>5</v>
       </c>
-      <c r="C16" s="9" t="n">
+      <c r="C16" s="11" t="n">
         <v>4.22580528259277</v>
       </c>
-      <c r="D16" s="8" t="n">
+      <c r="D16" s="10" t="n">
         <v>32</v>
       </c>
       <c r="E16" s="0" t="n">
         <v>39.6807396411896</v>
       </c>
-      <c r="F16" s="9" t="n">
+      <c r="F16" s="11" t="n">
         <v>826498</v>
       </c>
-      <c r="G16" s="8" t="n">
+      <c r="G16" s="12" t="n">
         <v>32</v>
       </c>
       <c r="H16" s="0" t="n">
         <v>0.160044193267822</v>
       </c>
-      <c r="I16" s="12" t="n">
+      <c r="I16" s="15" t="n">
         <v>33.6382141113281</v>
       </c>
-      <c r="J16" s="9" t="n">
+      <c r="J16" s="11" t="n">
         <v>825932</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="8" t="n">
+      <c r="B17" s="10" t="n">
         <v>13</v>
       </c>
-      <c r="C17" s="9" t="n">
+      <c r="C17" s="11" t="n">
         <v>8.3490309715271</v>
       </c>
-      <c r="D17" s="8" t="n">
+      <c r="D17" s="10" t="n">
         <v>286</v>
       </c>
       <c r="E17" s="0" t="n">
         <v>178.689073085785</v>
       </c>
-      <c r="F17" s="9" t="n">
+      <c r="F17" s="11" t="n">
         <v>2071285</v>
       </c>
-      <c r="G17" s="8" t="n">
+      <c r="G17" s="12" t="n">
         <v>286</v>
       </c>
       <c r="H17" s="0" t="n">
         <v>0.220495462417602</v>
       </c>
-      <c r="I17" s="11" t="n">
+      <c r="I17" s="14" t="n">
         <v>167.486445426941</v>
       </c>
-      <c r="J17" s="9" t="n">
+      <c r="J17" s="11" t="n">
         <v>2058255</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="7" t="s">
+      <c r="A18" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="8" t="n">
+      <c r="B18" s="10" t="n">
         <v>15</v>
       </c>
-      <c r="C18" s="9" t="n">
+      <c r="C18" s="11" t="n">
         <v>8.85324883460999</v>
       </c>
-      <c r="D18" s="8" t="n">
+      <c r="D18" s="10" t="n">
         <v>213</v>
       </c>
       <c r="E18" s="0" t="n">
         <v>369.573869466782</v>
       </c>
-      <c r="F18" s="9" t="n">
+      <c r="F18" s="11" t="n">
         <v>3209197</v>
       </c>
-      <c r="G18" s="8" t="n">
+      <c r="G18" s="12" t="n">
         <v>213</v>
       </c>
       <c r="H18" s="0" t="n">
         <v>0.203479290008545</v>
       </c>
-      <c r="I18" s="11" t="n">
+      <c r="I18" s="14" t="n">
         <v>348.421177387237</v>
       </c>
-      <c r="J18" s="9" t="n">
+      <c r="J18" s="11" t="n">
         <v>3120408</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="7" t="s">
+      <c r="A19" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B19" s="8" t="n">
+      <c r="B19" s="10" t="n">
         <v>16</v>
       </c>
-      <c r="C19" s="9" t="n">
+      <c r="C19" s="11" t="n">
         <v>9.1708664894104</v>
       </c>
-      <c r="D19" s="8" t="n">
+      <c r="D19" s="10" t="n">
         <v>150</v>
       </c>
       <c r="E19" s="0" t="n">
         <v>191.306616067886</v>
       </c>
-      <c r="F19" s="9" t="n">
+      <c r="F19" s="11" t="n">
         <v>2390507</v>
       </c>
-      <c r="G19" s="8" t="n">
+      <c r="G19" s="12" t="n">
         <v>150</v>
       </c>
       <c r="H19" s="0" t="n">
         <v>0.263519048690796</v>
       </c>
-      <c r="I19" s="11" t="n">
+      <c r="I19" s="14" t="n">
         <v>176.629216194153</v>
       </c>
-      <c r="J19" s="9" t="n">
+      <c r="J19" s="11" t="n">
         <v>2387965</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="3" t="n">
+      <c r="B20" s="4" t="n">
         <f aca="false">AVERAGE(B15:B19)</f>
         <v>11.2</v>
       </c>
-      <c r="C20" s="4" t="n">
+      <c r="C20" s="5" t="n">
         <f aca="false">AVERAGE(C15:C19)</f>
         <v>6.81986837387085</v>
       </c>
-      <c r="D20" s="3" t="n">
+      <c r="D20" s="4" t="n">
         <f aca="false">AVERAGE(D15:D19)</f>
         <v>141.4</v>
       </c>
-      <c r="E20" s="5" t="n">
+      <c r="E20" s="6" t="n">
         <f aca="false">AVERAGE(E15:E19)</f>
         <v>156.357271623611</v>
       </c>
-      <c r="F20" s="4" t="n">
+      <c r="F20" s="5" t="n">
         <f aca="false">AVERAGE(F15:F19)</f>
         <v>1734720.6</v>
       </c>
-      <c r="G20" s="3" t="n">
+      <c r="G20" s="7" t="n">
         <f aca="false">AVERAGE(G15:G19)</f>
         <v>141.4</v>
       </c>
-      <c r="H20" s="5" t="n">
+      <c r="H20" s="6" t="n">
         <f aca="false">AVERAGE(H15:H19)</f>
-        <v>0.189850234985352</v>
-      </c>
-      <c r="I20" s="5" t="n">
+        <v>0.189850234985351</v>
+      </c>
+      <c r="I20" s="6" t="n">
         <f aca="false">AVERAGE(I15:I19)</f>
         <v>145.794893360138</v>
       </c>
-      <c r="J20" s="4" t="n">
+      <c r="J20" s="5" t="n">
         <f aca="false">AVERAGE(J15:J19)</f>
         <v>1713130.6</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="7" t="s">
+      <c r="A21" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="14" t="n">
+      <c r="B21" s="17" t="n">
         <f aca="false">AVERAGE(B3:B7,B9:B13,B15:B19)</f>
         <v>6.26666666666667</v>
       </c>
-      <c r="C21" s="15" t="n">
+      <c r="C21" s="18" t="n">
         <f aca="false">AVERAGE(C3:C7,C9:C13,C15:C19)</f>
         <v>2.85370853741964</v>
       </c>
-      <c r="D21" s="14" t="n">
+      <c r="D21" s="17" t="n">
         <f aca="false">AVERAGE(D3:D7,D9:D13,D15:D19)</f>
         <v>56</v>
       </c>
-      <c r="E21" s="16" t="n">
+      <c r="E21" s="19" t="n">
         <f aca="false">AVERAGE(E3:E7,E9:E13,E15:E19)</f>
         <v>52.3643042246501</v>
       </c>
-      <c r="F21" s="15" t="n">
+      <c r="F21" s="18" t="n">
         <f aca="false">AVERAGE(F3:F7,F9:F13,F15:F19)</f>
         <v>592866.266666667</v>
       </c>
-      <c r="G21" s="14" t="n">
+      <c r="G21" s="20" t="n">
         <f aca="false">AVERAGE(G3:G7,G9:G13,G15:G19)</f>
         <v>56</v>
       </c>
-      <c r="H21" s="16" t="n">
+      <c r="H21" s="21" t="n">
         <f aca="false">AVERAGE(H3:H7,H9:H13,H15:H19)</f>
-        <v>0.0744189580281576</v>
-      </c>
-      <c r="I21" s="16" t="n">
+        <v>0.0744189580281575</v>
+      </c>
+      <c r="I21" s="21" t="n">
         <f aca="false">AVERAGE(I3:I7,I9:I13,I15:I19)</f>
         <v>48.8234261989593</v>
       </c>
-      <c r="J21" s="15" t="n">
+      <c r="J21" s="22" t="n">
         <f aca="false">AVERAGE(J3:J7,J9:J13,J15:J19)</f>
         <v>585053.6</v>
       </c>
